--- a/data/output/FV2410_FV2404/UTILMD/55192.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55192.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="396">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5053" uniqueCount="396">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1305,6 +1305,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U224" totalsRowShown="0">
+  <autoFilter ref="A1:U224"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1594,7 +1624,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12425,5 +12458,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55192.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55192.xlsx
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4288,7 +4288,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4706,7 +4706,7 @@
         <v>375</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4872,7 +4872,7 @@
         <v>376</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5088,7 +5088,7 @@
         <v>375</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5292,7 +5292,7 @@
         <v>378</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5690,7 +5690,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5888,7 +5888,7 @@
         <v>375</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6196,7 +6196,7 @@
         <v>379</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6858,7 +6858,7 @@
         <v>381</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7182,7 +7182,7 @@
         <v>383</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7504,7 +7504,7 @@
       </c>
       <c r="K101" s="2"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7702,7 +7702,7 @@
         <v>384</v>
       </c>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7900,7 +7900,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8098,7 +8098,7 @@
         <v>375</v>
       </c>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -8400,7 +8400,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8814,7 +8814,7 @@
         <v>385</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9028,7 +9028,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9484,7 +9484,7 @@
         <v>387</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9588,7 +9588,7 @@
         <v>388</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10114,7 +10114,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10260,7 +10260,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10662,7 +10662,7 @@
         <v>390</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10970,7 +10970,7 @@
         <v>391</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11530,7 +11530,7 @@
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11726,7 +11726,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11982,7 +11982,7 @@
         <v>393</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12292,7 +12292,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12654,7 +12654,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12754,7 +12754,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -12900,7 +12900,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13056,7 +13056,7 @@
         <v>395</v>
       </c>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13204,7 +13204,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13362,7 +13362,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -13668,7 +13668,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N222" s="2"/>
